--- a/Search Products/citychainNotFoundData.xlsx
+++ b/Search Products/citychainNotFoundData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>Title</t>
   </si>
@@ -22,15 +22,6 @@
     <t>NY0099-81XB</t>
   </si>
   <si>
-    <t>NJ0151-88M</t>
-  </si>
-  <si>
-    <t>NJ0150-81Z</t>
-  </si>
-  <si>
-    <t>NJ0150-81X</t>
-  </si>
-  <si>
     <t>NH8350-83AB</t>
   </si>
   <si>
@@ -73,21 +64,9 @@
     <t>EM0504-81A</t>
   </si>
   <si>
-    <t>CA4500-32A</t>
-  </si>
-  <si>
-    <t>CA4500-24H</t>
-  </si>
-  <si>
-    <t>BN0226-10P</t>
-  </si>
-  <si>
     <t>BN0225-04L</t>
   </si>
   <si>
-    <t>BN0166-01L</t>
-  </si>
-  <si>
     <t>BM7462-15E</t>
   </si>
   <si>
@@ -160,27 +139,12 @@
     <t>AK5003-05A</t>
   </si>
   <si>
-    <t>SFJ001P1</t>
-  </si>
-  <si>
-    <t>SFJ003P1</t>
-  </si>
-  <si>
     <t>SFJ005J1</t>
   </si>
   <si>
     <t>SFJ007J1</t>
   </si>
   <si>
-    <t>SFK001J1</t>
-  </si>
-  <si>
-    <t>SFK003J1</t>
-  </si>
-  <si>
-    <t>SFQ800P1</t>
-  </si>
-  <si>
     <t>SFQ801P1</t>
   </si>
   <si>
@@ -190,9 +154,27 @@
     <t>SGEH85P1</t>
   </si>
   <si>
+    <t>SNDH07P1</t>
+  </si>
+  <si>
+    <t>SNDH19P1</t>
+  </si>
+  <si>
     <t>SNDH31P1</t>
   </si>
   <si>
+    <t>SNDH33P1</t>
+  </si>
+  <si>
+    <t>SNDH37P1</t>
+  </si>
+  <si>
+    <t>SNDH43P1</t>
+  </si>
+  <si>
+    <t>SNDH45P1</t>
+  </si>
+  <si>
     <t>SNDH47P1</t>
   </si>
   <si>
@@ -202,51 +184,27 @@
     <t>SNE498P1</t>
   </si>
   <si>
-    <t>SNE499P1</t>
-  </si>
-  <si>
     <t>SNE541P1</t>
   </si>
   <si>
     <t>SNE543P1</t>
   </si>
   <si>
-    <t>SNE547P1</t>
-  </si>
-  <si>
     <t>SNE549P1</t>
   </si>
   <si>
     <t>SNE559P1</t>
   </si>
   <si>
-    <t>SNE569P1</t>
-  </si>
-  <si>
-    <t>SNE571P1</t>
-  </si>
-  <si>
     <t>SNE573P1</t>
   </si>
   <si>
-    <t>SNE583P1</t>
-  </si>
-  <si>
-    <t>SNE585P1</t>
-  </si>
-  <si>
-    <t>SNE586P1</t>
-  </si>
-  <si>
     <t>SNJ028P1</t>
   </si>
   <si>
     <t>SNJ031P1</t>
   </si>
   <si>
-    <t>SNJ037P1</t>
-  </si>
-  <si>
     <t>SNKD99K1</t>
   </si>
   <si>
@@ -334,60 +292,15 @@
     <t>SNKP20K1</t>
   </si>
   <si>
-    <t>SPB087J1</t>
-  </si>
-  <si>
-    <t>SPB103J1</t>
-  </si>
-  <si>
     <t>SPB117J1</t>
   </si>
   <si>
-    <t>SPB121J1</t>
-  </si>
-  <si>
-    <t>SPB143J1</t>
-  </si>
-  <si>
-    <t>SPB147J1</t>
-  </si>
-  <si>
-    <t>SPB151J1</t>
-  </si>
-  <si>
-    <t>SPB153J1</t>
-  </si>
-  <si>
-    <t>SPB155J1</t>
-  </si>
-  <si>
     <t>SPB157J1</t>
   </si>
   <si>
-    <t>SPB159J1</t>
-  </si>
-  <si>
     <t>SPB169J1</t>
   </si>
   <si>
-    <t>SPB170J1</t>
-  </si>
-  <si>
-    <t>SPB181J1</t>
-  </si>
-  <si>
-    <t>SPB183J1</t>
-  </si>
-  <si>
-    <t>SPB185J1</t>
-  </si>
-  <si>
-    <t>SPB187J1</t>
-  </si>
-  <si>
-    <t>SPB189J1</t>
-  </si>
-  <si>
     <t>SPB191J1</t>
   </si>
   <si>
@@ -403,177 +316,36 @@
     <t>SPB213J1</t>
   </si>
   <si>
-    <t>SPB217J1</t>
-  </si>
-  <si>
-    <t>SPB219J1</t>
-  </si>
-  <si>
-    <t>SPB221J1</t>
-  </si>
-  <si>
-    <t>SPB223J1</t>
-  </si>
-  <si>
-    <t>SPB227J1</t>
-  </si>
-  <si>
-    <t>SPB229J1</t>
-  </si>
-  <si>
-    <t>SPB237J1</t>
-  </si>
-  <si>
-    <t>SPB239J1</t>
-  </si>
-  <si>
-    <t>SPB241J1</t>
-  </si>
-  <si>
-    <t>SPB243J1</t>
-  </si>
-  <si>
-    <t>SPB245J1</t>
-  </si>
-  <si>
     <t>SPB249J1</t>
   </si>
   <si>
-    <t>SPB251J1</t>
-  </si>
-  <si>
-    <t>SPB253J1</t>
-  </si>
-  <si>
-    <t>SPB255J1</t>
-  </si>
-  <si>
-    <t>SPB257J1</t>
-  </si>
-  <si>
-    <t>SPB269J1</t>
-  </si>
-  <si>
-    <t>SPB273J1</t>
-  </si>
-  <si>
-    <t>SPB275J1</t>
-  </si>
-  <si>
-    <t>SPB277J1</t>
-  </si>
-  <si>
-    <t>SPB293J1</t>
-  </si>
-  <si>
-    <t>SPB297J1</t>
-  </si>
-  <si>
-    <t>SPB299J1</t>
-  </si>
-  <si>
-    <t>SPB301J1</t>
-  </si>
-  <si>
-    <t>SPB309J1</t>
-  </si>
-  <si>
-    <t>SPB311J1</t>
-  </si>
-  <si>
-    <t>SPB313J1</t>
-  </si>
-  <si>
-    <t>SPB315J1</t>
-  </si>
-  <si>
-    <t>SPB317J1</t>
-  </si>
-  <si>
-    <t>SPB321J1</t>
-  </si>
-  <si>
-    <t>SPB325J1</t>
-  </si>
-  <si>
-    <t>SPB329J1</t>
-  </si>
-  <si>
-    <t>SPB331J1</t>
-  </si>
-  <si>
-    <t>SPB333J1</t>
-  </si>
-  <si>
-    <t>SPB335J1</t>
-  </si>
-  <si>
-    <t>SPB337J1</t>
-  </si>
-  <si>
-    <t>SPB375J1</t>
-  </si>
-  <si>
     <t>SPB381J1</t>
   </si>
   <si>
-    <t>SPB383J1</t>
-  </si>
-  <si>
     <t>SPB385J1</t>
   </si>
   <si>
-    <t>SPB417J1</t>
-  </si>
-  <si>
-    <t>SRE003K1</t>
-  </si>
-  <si>
-    <t>SRE004K1</t>
-  </si>
-  <si>
     <t>SRE006K1</t>
   </si>
   <si>
-    <t>SRE007J1</t>
-  </si>
-  <si>
-    <t>SRE009J1</t>
-  </si>
-  <si>
-    <t>SRE010J1</t>
-  </si>
-  <si>
-    <t>SRK047P1</t>
-  </si>
-  <si>
-    <t>SRK048P1</t>
-  </si>
-  <si>
-    <t>SRK049P1</t>
-  </si>
-  <si>
     <t>SRKZ53P1</t>
   </si>
   <si>
-    <t>SRP837J1</t>
+    <t>SRP773K1</t>
+  </si>
+  <si>
+    <t>SRP775K1</t>
   </si>
   <si>
     <t>SRP839J1</t>
   </si>
   <si>
-    <t>SRP841J1</t>
-  </si>
-  <si>
     <t>SRP851P1</t>
   </si>
   <si>
     <t>SRP856J1</t>
   </si>
   <si>
-    <t>SRPB41J1</t>
-  </si>
-  <si>
     <t>SRPB44J1</t>
   </si>
   <si>
@@ -583,6 +355,12 @@
     <t>SRPB47J1</t>
   </si>
   <si>
+    <t>SRPB49K1</t>
+  </si>
+  <si>
+    <t>SRPC25K1</t>
+  </si>
+  <si>
     <t>SRPD21K1</t>
   </si>
   <si>
@@ -592,76 +370,43 @@
     <t>SRPD25K1</t>
   </si>
   <si>
-    <t>SRPD27K1</t>
-  </si>
-  <si>
     <t>SRPD29K1</t>
   </si>
   <si>
-    <t>SRPD36J1</t>
-  </si>
-  <si>
-    <t>SRPD37J1</t>
-  </si>
-  <si>
-    <t>SRPD46K1</t>
-  </si>
-  <si>
-    <t>SRPD57K1</t>
+    <t>SRPD59K1</t>
+  </si>
+  <si>
+    <t>SRPD67K1</t>
   </si>
   <si>
     <t>SRPD69K1</t>
   </si>
   <si>
+    <t>SRPD81K1</t>
+  </si>
+  <si>
+    <t>SRPD83K1</t>
+  </si>
+  <si>
+    <t>SRPD85K1</t>
+  </si>
+  <si>
     <t>SRPD97J1</t>
   </si>
   <si>
-    <t>SRPD99J1</t>
-  </si>
-  <si>
-    <t>SRPE03K1</t>
-  </si>
-  <si>
-    <t>SRPE05K1</t>
-  </si>
-  <si>
     <t>SRPE07K1</t>
   </si>
   <si>
-    <t>SRPE09K1</t>
-  </si>
-  <si>
-    <t>SRPE15J1</t>
-  </si>
-  <si>
-    <t>SRPE19J1</t>
-  </si>
-  <si>
-    <t>SRPE29K1</t>
-  </si>
-  <si>
-    <t>SRPE33K1</t>
-  </si>
-  <si>
-    <t>SRPE35K1</t>
-  </si>
-  <si>
-    <t>SRPE37K1</t>
-  </si>
-  <si>
-    <t>SRPE39K1</t>
-  </si>
-  <si>
     <t>SRPE41J1</t>
   </si>
   <si>
     <t>SRPE43J1</t>
   </si>
   <si>
-    <t>SRPE60K1</t>
-  </si>
-  <si>
-    <t>SRPE67K1</t>
+    <t>SRPE58K1</t>
+  </si>
+  <si>
+    <t>SRPE72K1</t>
   </si>
   <si>
     <t>SRPE85K1</t>
@@ -676,220 +421,49 @@
     <t>SRPE95K1</t>
   </si>
   <si>
-    <t>SRPE99K1</t>
-  </si>
-  <si>
     <t>SRPF07K1</t>
   </si>
   <si>
-    <t>SRPF09K1</t>
-  </si>
-  <si>
     <t>SRPF15K1</t>
   </si>
   <si>
     <t>SRPF25J1</t>
   </si>
   <si>
-    <t>SRPF27J1</t>
-  </si>
-  <si>
-    <t>SRPF31J1</t>
-  </si>
-  <si>
-    <t>SRPF45J1</t>
-  </si>
-  <si>
     <t>SRPF47J1</t>
   </si>
   <si>
     <t>SRPF49J1</t>
   </si>
   <si>
-    <t>SRPF77K1</t>
-  </si>
-  <si>
-    <t>SRPF79K1</t>
-  </si>
-  <si>
     <t>SRPF81K1</t>
   </si>
   <si>
-    <t>SRPF83K1</t>
-  </si>
-  <si>
     <t>SRPG03J1</t>
   </si>
   <si>
-    <t>SRPG05J1</t>
-  </si>
-  <si>
-    <t>SRPG13K1</t>
-  </si>
-  <si>
-    <t>SRPG15K1</t>
-  </si>
-  <si>
-    <t>SRPG17K1</t>
-  </si>
-  <si>
-    <t>SRPG18K1</t>
-  </si>
-  <si>
-    <t>SRPG19K1</t>
-  </si>
-  <si>
-    <t>SRPG21K1</t>
-  </si>
-  <si>
-    <t>SRPG27K1</t>
-  </si>
-  <si>
-    <t>SRPG33K1</t>
-  </si>
-  <si>
-    <t>SRPG37K1</t>
-  </si>
-  <si>
     <t>SRPG39K1</t>
   </si>
   <si>
-    <t>SRPG41K1</t>
-  </si>
-  <si>
-    <t>SRPG57K1</t>
-  </si>
-  <si>
-    <t>SRPG59K1</t>
-  </si>
-  <si>
-    <t>SRPG71K1</t>
-  </si>
-  <si>
-    <t>SRPG79K1</t>
-  </si>
-  <si>
-    <t>SRPG81K1</t>
-  </si>
-  <si>
-    <t>SRPG83K1</t>
-  </si>
-  <si>
-    <t>SRPG85K1</t>
-  </si>
-  <si>
-    <t>SRPH11K1</t>
-  </si>
-  <si>
-    <t>SRPH13K1</t>
-  </si>
-  <si>
-    <t>SRPH15K1</t>
-  </si>
-  <si>
-    <t>SRPH17K1</t>
-  </si>
-  <si>
     <t>SRPH25K1</t>
   </si>
   <si>
-    <t>SRPH29K1</t>
-  </si>
-  <si>
-    <t>SRPH33K1</t>
-  </si>
-  <si>
-    <t>SRPH43K1</t>
-  </si>
-  <si>
-    <t>SRPH75K1</t>
-  </si>
-  <si>
-    <t>SRPH77K1</t>
-  </si>
-  <si>
-    <t>SRPH85K1</t>
-  </si>
-  <si>
-    <t>SRPH87K1</t>
-  </si>
-  <si>
-    <t>SRPH89K1</t>
-  </si>
-  <si>
-    <t>SRPH92K1</t>
-  </si>
-  <si>
-    <t>SRPH95J1</t>
-  </si>
-  <si>
-    <t>SRPH99K1</t>
-  </si>
-  <si>
-    <t>SRPJ11K1</t>
-  </si>
-  <si>
-    <t>SRPJ13J1</t>
-  </si>
-  <si>
-    <t>SRPJ15J1</t>
-  </si>
-  <si>
     <t>SRPJ17J1</t>
   </si>
   <si>
-    <t>SRPJ35K1</t>
-  </si>
-  <si>
-    <t>SRPJ37K1</t>
-  </si>
-  <si>
-    <t>SRPJ39K1</t>
-  </si>
-  <si>
-    <t>SRPJ45K1</t>
-  </si>
-  <si>
-    <t>SRPJ51K1</t>
-  </si>
-  <si>
-    <t>SRPJ75K1(Honda Super Cub)</t>
-  </si>
-  <si>
     <t>SRPJ79K1</t>
   </si>
   <si>
-    <t>SRPJ87K1</t>
-  </si>
-  <si>
     <t>SRPJ91K1</t>
   </si>
   <si>
-    <t>SRPJ93K1</t>
-  </si>
-  <si>
-    <t>SRPK01K1</t>
-  </si>
-  <si>
-    <t>SRPK15J1</t>
-  </si>
-  <si>
-    <t>SRPK29K1</t>
-  </si>
-  <si>
-    <t>SRPK31K1</t>
-  </si>
-  <si>
-    <t>SRPK33K1</t>
-  </si>
-  <si>
-    <t>SRPK35K1</t>
-  </si>
-  <si>
     <t>SRQ037J1</t>
   </si>
   <si>
-    <t>SRWZ65P1</t>
+    <t>SRW799P1</t>
+  </si>
+  <si>
+    <t>SRWZ88P1</t>
   </si>
   <si>
     <t>SRZ502P1</t>
@@ -904,78 +478,33 @@
     <t>SRZ514P1</t>
   </si>
   <si>
-    <t>SSA392J1</t>
+    <t>SSA341J1</t>
+  </si>
+  <si>
+    <t>SSA347J1</t>
   </si>
   <si>
     <t>SSA399J1</t>
   </si>
   <si>
-    <t>SSA405J1</t>
-  </si>
-  <si>
     <t>SSA407J1</t>
   </si>
   <si>
-    <t>SSA412J1</t>
-  </si>
-  <si>
-    <t>SSA421J1</t>
-  </si>
-  <si>
     <t>SSA423J1</t>
   </si>
   <si>
     <t>SSA426J1</t>
   </si>
   <si>
-    <t>SSA439J1</t>
-  </si>
-  <si>
     <t>SSA441J1</t>
   </si>
   <si>
-    <t>SSA443J1</t>
-  </si>
-  <si>
-    <t>SSA449J1</t>
-  </si>
-  <si>
-    <t>SSA455J1</t>
-  </si>
-  <si>
-    <t>SSA457J1</t>
-  </si>
-  <si>
-    <t>SSA459J1</t>
-  </si>
-  <si>
     <t>SSB375P1</t>
   </si>
   <si>
-    <t>SSB377P1</t>
-  </si>
-  <si>
-    <t>SSB379P1</t>
-  </si>
-  <si>
     <t>SSB380P1</t>
   </si>
   <si>
-    <t>SSB385P1</t>
-  </si>
-  <si>
-    <t>SSB425P1</t>
-  </si>
-  <si>
-    <t>SSB427P1</t>
-  </si>
-  <si>
-    <t>SSB429P1</t>
-  </si>
-  <si>
-    <t>SSC769P1</t>
-  </si>
-  <si>
     <t>SSC779P1</t>
   </si>
   <si>
@@ -988,48 +517,6 @@
     <t>SSC785P1</t>
   </si>
   <si>
-    <t>SSC813P1</t>
-  </si>
-  <si>
-    <t>SSC815P1</t>
-  </si>
-  <si>
-    <t>SSC817P1</t>
-  </si>
-  <si>
-    <t>SSC819P1</t>
-  </si>
-  <si>
-    <t>SSC911P1</t>
-  </si>
-  <si>
-    <t>SSC913P1</t>
-  </si>
-  <si>
-    <t>SSC915P1</t>
-  </si>
-  <si>
-    <t>SSC917P1</t>
-  </si>
-  <si>
-    <t>SSH093J1(ASTRON)</t>
-  </si>
-  <si>
-    <t>SSK001K1(Black)</t>
-  </si>
-  <si>
-    <t>SSK003K1(Blue)</t>
-  </si>
-  <si>
-    <t>SSK005K1(Orange)</t>
-  </si>
-  <si>
-    <t>SSK009J1</t>
-  </si>
-  <si>
-    <t>SSK011J1</t>
-  </si>
-  <si>
     <t>SUR237P1</t>
   </si>
   <si>
@@ -1042,60 +529,30 @@
     <t>SUR299P1</t>
   </si>
   <si>
-    <t>SUR305P1</t>
-  </si>
-  <si>
     <t>SUR306P1</t>
   </si>
   <si>
-    <t>SUR307P1</t>
-  </si>
-  <si>
-    <t>SUR309P1</t>
-  </si>
-  <si>
-    <t>SUR311P1</t>
-  </si>
-  <si>
-    <t>SUR312P1</t>
-  </si>
-  <si>
     <t>SUR314P1</t>
   </si>
   <si>
     <t>SUR317P1</t>
   </si>
   <si>
-    <t>SUR319P1</t>
-  </si>
-  <si>
-    <t>SUR329P1</t>
-  </si>
-  <si>
     <t>SUR330P1</t>
   </si>
   <si>
-    <t>SUR332P1</t>
-  </si>
-  <si>
     <t>SUR339P1</t>
   </si>
   <si>
     <t>SUR341P1</t>
   </si>
   <si>
-    <t>SUR343P1</t>
-  </si>
-  <si>
     <t>SUR347P1</t>
   </si>
   <si>
     <t>SUR348P1</t>
   </si>
   <si>
-    <t>SUR353P1</t>
-  </si>
-  <si>
     <t>SUR379P1</t>
   </si>
   <si>
@@ -1114,18 +571,9 @@
     <t>SUR404P1</t>
   </si>
   <si>
-    <t>SUR410P1</t>
-  </si>
-  <si>
     <t>SUR412P1</t>
   </si>
   <si>
-    <t>SUR446P1</t>
-  </si>
-  <si>
-    <t>SUR454P1</t>
-  </si>
-  <si>
     <t>SUR456P1</t>
   </si>
   <si>
@@ -1135,9 +583,6 @@
     <t>SUR461P1</t>
   </si>
   <si>
-    <t>SUR465P1</t>
-  </si>
-  <si>
     <t>SUR470P1</t>
   </si>
   <si>
@@ -1147,57 +592,15 @@
     <t>SUR479P1</t>
   </si>
   <si>
-    <t>SUR480P1</t>
-  </si>
-  <si>
-    <t>SUR523P1</t>
-  </si>
-  <si>
-    <t>SUR525P1</t>
-  </si>
-  <si>
-    <t>SUR529P1</t>
-  </si>
-  <si>
-    <t>SUR531P1</t>
-  </si>
-  <si>
     <t>SUR538P1</t>
   </si>
   <si>
-    <t>SUR539P1</t>
-  </si>
-  <si>
     <t>SUR542P1</t>
   </si>
   <si>
-    <t>SUR549P1</t>
-  </si>
-  <si>
-    <t>SUR550P1</t>
-  </si>
-  <si>
-    <t>SUR552P1</t>
-  </si>
-  <si>
-    <t>SUR553P1</t>
-  </si>
-  <si>
-    <t>SUR555P1</t>
-  </si>
-  <si>
-    <t>SUR557P1</t>
-  </si>
-  <si>
-    <t>SUR558P1</t>
-  </si>
-  <si>
     <t>SUR632P1</t>
   </si>
   <si>
-    <t>SUR633P1</t>
-  </si>
-  <si>
     <t>SUR634P1</t>
   </si>
   <si>
@@ -1207,25 +610,10 @@
     <t>SUT405P1</t>
   </si>
   <si>
-    <t>SWR033P1</t>
-  </si>
-  <si>
     <t>SWR035P1</t>
   </si>
   <si>
     <t>SWR073P1</t>
-  </si>
-  <si>
-    <t>SWR078P1</t>
-  </si>
-  <si>
-    <t>SWR083P1</t>
-  </si>
-  <si>
-    <t>SWR085P1</t>
-  </si>
-  <si>
-    <t>SWR087P1</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A405"/>
+  <dimension ref="A1:A201"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2610,1026 +1998,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>404</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
